--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181687.4362655479</v>
+        <v>-149776.0503395046</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17257637.27977392</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8827651.492770748</v>
+        <v>8859547.560734577</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>252.8049016134952</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>54.05824973581245</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>122.113457983567</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,10 +829,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>110.2564737593037</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>349.921990044973</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,16 +902,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>317.9126228883643</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>86.20228614855883</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.50015145455295</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>46.39808287235955</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454367</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>199.6190117591775</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946036</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253733</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602631</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>205.8083339461491</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225694</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056501</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,10 +1844,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>248.300724079848</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>381.4061090983701</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,10 +2059,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738371</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454369</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.99360936799791</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2242,19 +2242,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>61.06386613909862</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>31.24391673888162</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,25 +2713,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>126.7641785672308</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225762</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522577</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>144.4937753855484</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932886</v>
       </c>
       <c r="F38" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359887001</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>90.8279369472985</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873979</v>
+        <v>50.3082548690714</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.24351759540664</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.4027335988709</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602944</v>
+        <v>155.2022955251537</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.740036559457</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>547.9560900011804</v>
+        <v>1117.169145538666</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1083.067076762493</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1051.197695977341</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>617.4229511356366</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>593.5959255852484</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1699.767264620225</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1699.767264620225</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1699.767264620225</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1699.767264620225</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1966.856899104205</v>
       </c>
       <c r="X2" t="n">
-        <v>1382.541784186435</v>
+        <v>1547.714435683516</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.2556604860882</v>
+        <v>1139.428311983169</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>822.6719958782703</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>650.1102843614952</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>484.2322915630179</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>314.4742878137552</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423609</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.252639110322</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.995309448879</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1585.813254565969</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>1585.813254565969</v>
+        <v>1750.392590344264</v>
       </c>
       <c r="V4" t="n">
-        <v>1585.813254565969</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="W4" t="n">
-        <v>1585.813254565969</v>
+        <v>1191.410677800986</v>
       </c>
       <c r="X4" t="n">
-        <v>1340.421499899382</v>
+        <v>946.0189231343986</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>946.0189231343986</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>462.4809763712854</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230546</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.749580445395</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>445.6420067219212</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>411.5399379457486</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>379.6705571605972</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>349.9362163592964</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>326.1091908089082</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>326.1091908089082</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.97903625212442</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.97903625212442</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.97903625212442</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.97903625212442</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>36.97903625212442</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>306.9510269930454</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>764.5666006130851</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>764.5666006130851</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1222.182174233125</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1679.797747853165</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1848.951812606221</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1765.299938790058</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1765.299938790058</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1765.299938790058</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1765.299938790058</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1360.444484201091</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>941.3020207804021</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>533.0158970800555</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>543.1507812434172</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.6943200800595</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.6040312266127</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.4836165535664</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>164.0997781697281</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.71468843591195</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.97903625212442</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>63.04270941258201</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.6010343787943</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>845.2166079988341</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1125.430446016554</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1125.430446016554</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1125.430446016554</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1125.430446016554</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1125.430446016554</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1583.046019636594</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.218797730933</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.763360179316</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.584716509918</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.248169509886</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1131.130651571886</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.8078973050797</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.9404615439596</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.4546823231804</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1116.037196864006</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.4754853472308</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.5974925487535</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.8394887994907</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>431.1324347612469</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.5411597870745</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.6389854774491</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.97903625212442</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.97903625212442</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.97903625212442</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>181.901292632414</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>639.5168662524537</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1081.775669410098</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1501.44491863588</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1848.951812606221</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1848.951812606221</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1827.533991311593</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1827.533991311593</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1827.533991311593</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1827.533991311593</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1827.533991311593</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.667240935472</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.275486268885</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.855815582993</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.23363613349</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.091163316913</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.181378491358</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.406633649653</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.5392040588608</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.1413726821247</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.01121812534096</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.8491162053989</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>531.8491162053989</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1606.909082458258</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1606.909082458258</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2305.579045508694</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3285.758712079</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4114.068586912396</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4660.567372870992</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4829.721437624048</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4746.069563807885</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4746.069563807885</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.434198394574</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.817248328401</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.961793739434</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.819330318745</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.533206618398</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.7661737437737</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.309712580416</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2194237269693</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.099009053923</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7151706700846</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.3300809362685</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>122.6581019129386</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2164268791509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.66141213695</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.83419023129</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.378752679673</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.200109010274</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.863562010243</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.746044072242</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.423289805436</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.5558540443161</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.0700748235369</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.0904658294121</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.528754312637</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.6507615141597</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>438.8927577648971</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>262.1857037266533</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.59442875248097</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.59442875248097</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.59442875248097</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.1741139171708</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>457.9325684883065</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.1424502562675</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.62631743718</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.885120594825</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.554369820607</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.061263790948</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.012669953278</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.135423191051</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.702422444157</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.746914314587</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.720509900879</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.328755234291</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.909084548399</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.361224717019</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.218751900442</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.308967074886</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.534222233181</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6667926423894</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2689612656533</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.13880670886954</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3567.117946436412</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>4547.297613006718</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4666.946802047421</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4666.946802047421</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4752.448992984314</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.561786978103</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.561786978103</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.944836911929</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.089382322963</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.946918902273</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.660795201927</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2180544129415</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6563428961664</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7783500976884</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0203463484256</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3132923101819</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>96.72201733600954</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3017025006994</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.142458196125</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.263011774581</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.830011027686</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.874502898116</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.848098484408</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.45634381782</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.036673131929</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2335.610774729449</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.801962527582</v>
+        <v>2034.581622478952</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.892177702026</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.117432860322</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2500032695293</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8521718927933</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.72201733600954</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.72201733600954</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>498.0824153303131</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1573.142381583172</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>2730.190216793723</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>3855.92120023017</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>4836.100866800477</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.100866800477</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.100866800477</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.100866800477</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.033639673516</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4356.811336990532</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.194386924359</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3589.338932335392</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.196468914703</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.910345214356</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2158547536219</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6541432368468</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7761504383695</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0181466891068</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F19" t="n">
-        <v>121.311092650863</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>96.72201733600954</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.72201733600954</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3017025006994</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.381627238809</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.140258536806</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.260812115261</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.827811368366</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.872303238797</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.845898825088</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.454144158501</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0344734726091</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.361224717019</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.218751900442</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.308967074887</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.534222233182</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6667926423894</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2689612656533</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.13880670886954</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.386962999965</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.386962999965</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.11253943818</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.292206008486</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4289.602080841882</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.100866800477</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.784089661085</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.784089661085</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.561786978103</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.944836911929</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.089382322962</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.946918902273</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.660795201926</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2158547536219</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6541432368468</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7761504383695</v>
+        <v>571.9874297141757</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0181466891068</v>
+        <v>402.229425964913</v>
       </c>
       <c r="F22" t="n">
-        <v>121.311092650863</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>96.72201733600954</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3017025006994</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.140258536806</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.260812115261</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.827811368366</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.872303238797</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.845898825088</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.454144158501</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0344734726091</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>790.336856393764</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>624.4588635952867</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>624.4588635952867</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477105</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309355</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324582</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134641</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6883,16 +6883,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7120,13 +7120,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
         <v>1889.413325832886</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.827658875051</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711749</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1332516872511</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2751.674257000255</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3731.853923570562</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4560.163798403958</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1009.63119554859</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C40" t="n">
-        <v>917.885804692733</v>
+        <v>831.0115848906039</v>
       </c>
       <c r="D40" t="n">
-        <v>752.4246012671157</v>
+        <v>665.1335920921265</v>
       </c>
       <c r="E40" t="n">
-        <v>583.0833868907127</v>
+        <v>495.3755883428638</v>
       </c>
       <c r="F40" t="n">
-        <v>406.7931222253289</v>
+        <v>318.66853430462</v>
       </c>
       <c r="G40" t="n">
-        <v>241.6186366240166</v>
+        <v>153.0772593304477</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517562</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840569</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429309</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851294</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341416</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.06082370477</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.06082370477</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375627</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326942</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.757375952907</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.218657196198</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1481.609042155349</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.634076861622</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.63119554859</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.5453418998825</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>778.4004197559674</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>612.9392163303501</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>267.3077372885634</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.534632893618</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.950052559042</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.94717124601</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.798197351206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.798197351206</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.5453418998823</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>778.4004197559672</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>612.9392163303498</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5980019539471</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.3077372885634</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1214321162808</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.2883819517564</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2563.236244375628</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2317.773587326943</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2039.757375952908</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V46" t="n">
-        <v>1753.218657196199</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1481.60904215535</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1236.634076861623</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.947171246009</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274487</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6989805463849</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>462.2379531515553</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>462.2379531515553</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515553</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515553</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259797</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515553</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>146.3861175558481</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515553</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>705.7272354044808</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,16 +8936,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P14" t="n">
-        <v>120.8577667077798</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>405.4145434285895</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.12684488708555</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N38" t="n">
-        <v>307.9556158071205</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373665</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>57.01106789697576</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.7827269140524</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>12.05822090954263</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627264</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>185.4603240085629</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.14457787892985</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>117.7661826744368</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.82174571000346</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.1553467313939</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>48.17580493063055</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>79.59553597517746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>88.19489769745783</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394007</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255049</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.9928159404453</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9928159404444</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>754459.6148288073</v>
+        <v>764178.8799804946</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>754459.6148288073</v>
+        <v>766931.1168864747</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>756405.1628516709</v>
+        <v>766931.1168864747</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>746123.190561412</v>
+        <v>746930.7723591609</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>746851.129279078</v>
+        <v>746930.7723591609</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746851.129279078</v>
+        <v>746930.7723591609</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746851.129279078</v>
+        <v>746930.7723591607</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778452.1044839758</v>
+        <v>778452.1044839756</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778452.1044839758</v>
+        <v>778452.104483976</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778707.9964560953</v>
+        <v>778452.1044839759</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778707.9964560953</v>
+        <v>778452.1044839759</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778707.9964560956</v>
+        <v>778452.1044839757</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>214458.9279561634</v>
       </c>
       <c r="E2" t="n">
-        <v>201990.930146496</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="F2" t="n">
-        <v>202187.9981649292</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="G2" t="n">
-        <v>202187.9981649292</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="H2" t="n">
-        <v>202187.9981649292</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="I2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="J2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="K2" t="n">
         <v>210743.033654941</v>
@@ -26344,16 +26344,16 @@
         <v>210743.033654941</v>
       </c>
       <c r="M2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
-        <v>210837.4710260739</v>
+        <v>210743.033654941</v>
       </c>
       <c r="O2" t="n">
-        <v>210837.4710260739</v>
+        <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>210837.4710260739</v>
+        <v>210743.033654941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>11785.95316599761</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222498.0582746432</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>456.9680810513637</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18411.11667046245</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>9602.802925459551</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>185704.9284082356</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>330.0971833050781</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999511</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193090.8671996127</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65176.64693279192</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="F4" t="n">
-        <v>65240.23509811127</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
-        <v>65240.23509811126</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="H4" t="n">
-        <v>65240.23509811127</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68354.08299527939</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="O4" t="n">
-        <v>68354.08299527943</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
-        <v>68354.08299527943</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61731.66755161456</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73411.76585188553</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-186985.9870872845</v>
+        <v>-228370.8469058323</v>
       </c>
       <c r="C6" t="n">
-        <v>-44794.68642757454</v>
+        <v>-33730.78223217493</v>
       </c>
       <c r="D6" t="n">
-        <v>-52149.55996106139</v>
+        <v>-16390.23785826804</v>
       </c>
       <c r="E6" t="n">
-        <v>-159095.5409128247</v>
+        <v>-98368.60907245472</v>
       </c>
       <c r="F6" t="n">
-        <v>62982.06181039932</v>
+        <v>63366.4661376597</v>
       </c>
       <c r="G6" t="n">
-        <v>63439.02989145069</v>
+        <v>63366.46613765967</v>
       </c>
       <c r="H6" t="n">
-        <v>63439.02989145069</v>
+        <v>63366.46613765967</v>
       </c>
       <c r="I6" t="n">
-        <v>46612.98008935319</v>
+        <v>46636.15678759346</v>
       </c>
       <c r="J6" t="n">
-        <v>-45990.36858517455</v>
+        <v>-95606.95706518016</v>
       </c>
       <c r="K6" t="n">
-        <v>65024.09675981564</v>
+        <v>51186.86385258771</v>
       </c>
       <c r="L6" t="n">
-        <v>55421.2938343561</v>
+        <v>65000.872420433</v>
       </c>
       <c r="M6" t="n">
-        <v>-120680.83164842</v>
+        <v>-69989.07219257044</v>
       </c>
       <c r="N6" t="n">
-        <v>64497.33089004958</v>
+        <v>65000.87242043306</v>
       </c>
       <c r="O6" t="n">
-        <v>64827.42807335453</v>
+        <v>65000.87242043294</v>
       </c>
       <c r="P6" t="n">
-        <v>64827.42807335456</v>
+        <v>65000.872420433</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>462.2379531515553</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1207.430359406012</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>37.94209563145095</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.1924062544567</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
-        <v>1.594857294107214</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.23528668462609</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145095</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544567</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145095</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544567</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
-        <v>1.594857294107214</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>144.5789514494735</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>360.8927890506699</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>67.78697454823022</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1641781980256</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>72.11458473508571</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,16 +27622,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>111.5243745049235</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>84.63380825304849</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.5364233255057</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>222.9080574972118</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313476</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274487</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6989805463849</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>462.2379531515553</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>462.2379531515553</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515553</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515553</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259797</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515553</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>146.3861175558481</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515553</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>705.7272354044808</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,16 +35656,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P14" t="n">
-        <v>120.8577667077798</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>405.4145434285895</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.12684488708555</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36762,7 +36762,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N38" t="n">
-        <v>307.9556158071205</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821203</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752275</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871725</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436897</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821203</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373665</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821186</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871728</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
